--- a/Resultados/Mercado mundial - Pepinos, pepinillos.xlsx
+++ b/Resultados/Mercado mundial - Pepinos, pepinillos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Russian Federation" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Uzbekistan" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uzbekistán" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -639,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Russian Federation'!$B$12:$B$73</f>
+              <f>'Federación de Rusia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Russian Federation'!$C$12:$C$73</f>
+              <f>'Federación de Rusia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Uzbekistan'!$B$12:$B$73</f>
+              <f>'Uzbekistán'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Uzbekistan'!$C$12:$C$73</f>
+              <f>'Uzbekistán'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>2194152</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>44.5794</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>97814093.15000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>44.5794</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3296174.29</v>
@@ -2160,10 +2160,10 @@
         <v>2186993</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>43.5217</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>95181586.34999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>43.5217</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3090658.81</v>
@@ -2182,10 +2182,10 @@
         <v>2177225</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>42.7229</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>93017300.09</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>42.7229</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3134019.21</v>
@@ -2204,10 +2204,10 @@
         <v>2174139</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>41.7924</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>90862506.23999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>41.7924</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3044263.74</v>
@@ -2226,10 +2226,10 @@
         <v>2175785</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>40.5914</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>88318245.64</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>40.5914</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3011943.66</v>
@@ -2248,10 +2248,10 @@
         <v>2130688</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>39.8689</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>84948212.17</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>39.8689</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2940890.37</v>
@@ -2270,10 +2270,10 @@
         <v>2113122</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>38.917</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>82236274.98</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>38.917</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2798633.19</v>
@@ -2292,10 +2292,10 @@
         <v>2199119</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>36.7796</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>80882809.33</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>36.7796</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2781563.86</v>
@@ -2314,10 +2314,10 @@
         <v>2161106</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>36.2875</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>78421113.31</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>36.2875</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2678896.25</v>
@@ -2336,10 +2336,10 @@
         <v>2140716</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>35.5719</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>76149261.18000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>35.5719</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2708200.19</v>
@@ -2358,10 +2358,10 @@
         <v>2112244</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>34.6843</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>73261737.87</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>34.6843</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2453143</v>
@@ -2380,10 +2380,10 @@
         <v>2117097</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>33.4655</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>70849648.26000001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>33.4655</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2391986</v>
@@ -2402,10 +2402,10 @@
         <v>2091955</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>32.4867</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>67960762.22</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>32.4867</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2324872</v>
@@ -2424,10 +2424,10 @@
         <v>2021831</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>30.9518</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>62579398.29</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>30.9518</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2388055</v>
@@ -2446,10 +2446,10 @@
         <v>1967359</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>30.8452</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>60683642.24</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>30.8452</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2097804</v>
@@ -2468,10 +2468,10 @@
         <v>1921653</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>30.4147</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>58446498.98</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>30.4147</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1971722</v>
@@ -2490,10 +2490,10 @@
         <v>1968997</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>27.4723</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>54092832.17</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>27.4723</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1890446</v>
@@ -2512,10 +2512,10 @@
         <v>1880723</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>26.4239</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>49696004.37</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>26.4239</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1799537</v>
@@ -2534,10 +2534,10 @@
         <v>1916988</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>23.9884</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>45985531.27</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>23.9884</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1667426</v>
@@ -2556,10 +2556,10 @@
         <v>1905287</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>22.6176</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>43092931.95</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>22.6176</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1543212</v>
@@ -2578,10 +2578,10 @@
         <v>1950985</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.2542</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>43417699.14</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.2542</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1449501</v>
@@ -2600,10 +2600,10 @@
         <v>1970233</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21.6746</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>42703924.35</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21.6746</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1381236</v>
@@ -2622,10 +2622,10 @@
         <v>2018272</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>39457185.07</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>19.55</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1342650</v>
@@ -2644,10 +2644,10 @@
         <v>2046793</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.537</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>37941457.64</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.537</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1245814.35</v>
@@ -2666,10 +2666,10 @@
         <v>1950757</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>15.8171</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>30855330.25</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>15.8171</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1224630.93</v>
@@ -2688,10 +2688,10 @@
         <v>1824921</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.734</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>28713249.01</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.734</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1228663.99</v>
@@ -2710,10 +2710,10 @@
         <v>1718398</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>15.9853</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>27469144.89</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>15.9853</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1266494.53</v>
@@ -2732,10 +2732,10 @@
         <v>1562465</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16.4105</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>25640858.39</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16.4105</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1238510.02</v>
@@ -2754,10 +2754,10 @@
         <v>1489247</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>15.8089</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>23543389.6</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>15.8089</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1132106.02</v>
@@ -2776,10 +2776,10 @@
         <v>1395883</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>15.5227</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>21667891.76</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>15.5227</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1252102.14</v>
@@ -2798,10 +2798,10 @@
         <v>1299858</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>15.5807</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>20252696.2</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>15.5807</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1053234</v>
@@ -2820,10 +2820,10 @@
         <v>1175010</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>15.4461</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>18149291.58</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>15.4461</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1177347</v>
@@ -2842,10 +2842,10 @@
         <v>1183819</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14.9747</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17727338.39</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14.9747</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1071453</v>
@@ -2864,10 +2864,10 @@
         <v>1196307</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>14.7333</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>17625563</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>14.7333</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>965890</v>
@@ -2886,10 +2886,10 @@
         <v>1215571</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13.3014</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>16168780</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13.3014</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>947762</v>
@@ -2908,10 +2908,10 @@
         <v>1176621</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13.583</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15982065</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13.583</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>920346</v>
@@ -2930,10 +2930,10 @@
         <v>1174717</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13.7095</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>16104825</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13.7095</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>861993</v>
@@ -2952,10 +2952,10 @@
         <v>1166510</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>13.5576</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15815060</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>13.5576</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>829317</v>
@@ -2974,10 +2974,10 @@
         <v>1160590</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>13.3257</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15465643</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>13.3257</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>768560</v>
@@ -2996,10 +2996,10 @@
         <v>1098234</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>13.4065</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>14723523</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>13.4065</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>743643</v>
@@ -3018,10 +3018,10 @@
         <v>1106586</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>13.1556</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14557840</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>13.1556</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>701987</v>
@@ -3040,10 +3040,10 @@
         <v>1115159</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>13.1753</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14692535</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>13.1753</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>687548</v>
@@ -3062,10 +3062,10 @@
         <v>1085398</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13.0863</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14203897</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13.0863</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>709452</v>
@@ -3084,10 +3084,10 @@
         <v>1055548</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.0866</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12757970</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.0866</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>655602</v>
@@ -3106,10 +3106,10 @@
         <v>1057442</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>12.6092</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13333545</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>12.6092</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>697270</v>
@@ -3128,10 +3128,10 @@
         <v>1037100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11.6727</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12105800</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11.6727</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>660680</v>
@@ -3150,10 +3150,10 @@
         <v>972648</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12.6498</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12303822</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12.6498</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>606441</v>
@@ -3172,10 +3172,10 @@
         <v>950361</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.9087</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11317584</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.9087</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>548200</v>
@@ -3194,10 +3194,10 @@
         <v>975953</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.9319</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11644926</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.9319</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>490766</v>
@@ -3216,10 +3216,10 @@
         <v>945602</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.614</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>10982232</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.614</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>492862</v>
@@ -3238,10 +3238,10 @@
         <v>958808</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.7579</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11273541</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.7579</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>474105</v>
@@ -3260,10 +3260,10 @@
         <v>919144</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.5409</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10607717</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.5409</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>445317</v>
@@ -3282,10 +3282,10 @@
         <v>911736</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11.5847</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10562148</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11.5847</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>381462</v>
@@ -3304,10 +3304,10 @@
         <v>875852</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.6159</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10173815</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.6159</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>369525</v>
@@ -3326,10 +3326,10 @@
         <v>1002042</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.0617</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11084264</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.0617</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>334475</v>
@@ -3348,10 +3348,10 @@
         <v>992215</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10.9733</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10887839</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10.9733</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>249939</v>
@@ -3370,10 +3370,10 @@
         <v>988308</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10.5818</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10458054</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10.5818</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>283005</v>
@@ -3391,10 +3391,10 @@
         <v>964647</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>9906906</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10.27</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>287941</v>
@@ -3412,10 +3412,10 @@
         <v>958144</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.7156</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9308925</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.7156</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>236126</v>
@@ -3433,10 +3433,10 @@
         <v>974516</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.6701</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9423680</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.6701</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>203333</v>
@@ -3454,10 +3454,10 @@
         <v>1010686</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.488899999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9590254</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.488899999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>194690</v>
@@ -3475,10 +3475,10 @@
         <v>1022017</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9371934</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.17</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>204235</v>
@@ -3496,10 +3496,10 @@
         <v>1012465</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.431100000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9548650</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.431100000000001</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>154326</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uzbekistán</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Kazajstán</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Afganistán</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Jordania</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Chequia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>1324706</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>60.5177</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>80168206.73</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>60.5177</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>1307080</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>59.348</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>77572601.29000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>59.348</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>1283995</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>58.4928</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>75104437.89</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>58.4928</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5071,10 @@
         <v>1279591</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>56.978</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>72908502.34</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>56.978</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.67</v>
@@ -5093,10 +5093,10 @@
         <v>1258370</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>55.8969</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>70338971</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>55.8969</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>11.68</v>
@@ -5115,10 +5115,10 @@
         <v>1239950</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>54.5198</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>67601863</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>54.5198</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.13</v>
@@ -5137,10 +5137,10 @@
         <v>1226771</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>53.1126</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>65156962.79</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>53.1126</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.71</v>
@@ -5159,10 +5159,10 @@
         <v>1210759</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>51.8733</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>62806009.62</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>51.8733</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.76</v>
@@ -5181,10 +5181,10 @@
         <v>1191632</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>50.693</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>60407455.39</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>50.693</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7.9</v>
@@ -5203,10 +5203,10 @@
         <v>1181676</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>48.12269999999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>56865417.74</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>48.12269999999999</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5223,10 +5223,10 @@
         <v>1164350</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>46.6491</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>54315900</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>46.6491</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>1156980</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>44.8466</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>51886600</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>44.8466</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5267,10 +5267,10 @@
         <v>1112230</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>44.2293</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>49193200</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>44.2293</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5289,10 +5289,10 @@
         <v>1070000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>42.6776</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>45665000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>42.6776</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>1034700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>42.7216</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>44204000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>42.7216</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>1005700</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>41.9549</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>42194000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>41.9549</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5355,10 +5355,10 @@
         <v>1100000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>34.5455</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>38000000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>34.5455</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>1000000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>33000000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>33</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5399,10 +5399,10 @@
         <v>1050000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>28.5714</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>30000000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>28.5714</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         <v>1000000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27000000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>1050000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>26</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>27300000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>26</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>1100000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>27500000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>25</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5487,10 +5487,10 @@
         <v>1150000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.7391</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>25000000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.7391</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5509,10 +5509,10 @@
         <v>1160000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>23200000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1.9</v>
@@ -5531,10 +5531,10 @@
         <v>1050000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>15.7143</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>16500000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>15.7143</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1</v>
@@ -5553,10 +5553,10 @@
         <v>950000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.7895</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15000000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.7895</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7</v>
@@ -5575,10 +5575,10 @@
         <v>850000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16.7059</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>14200000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16.7059</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3</v>
@@ -5597,10 +5597,10 @@
         <v>750000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17.7333</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>13300000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17.7333</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>12</v>
@@ -5619,10 +5619,10 @@
         <v>660000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17.4621</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11525000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17.4621</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>20</v>
@@ -5641,10 +5641,10 @@
         <v>620000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.9355</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10500000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.9355</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -5661,10 +5661,10 @@
         <v>540000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>17.037</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9200000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>17.037</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -5681,10 +5681,10 @@
         <v>430000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>17.6744</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7600000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>17.6744</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -5701,10 +5701,10 @@
         <v>457115</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>16.2213</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>7415000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>16.2213</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -5721,10 +5721,10 @@
         <v>450000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>14.9778</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6740000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>14.9778</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -5741,10 +5741,10 @@
         <v>445000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13.7753</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6130000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13.7753</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -5761,10 +5761,10 @@
         <v>440000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13.4091</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5900000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13.4091</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -5781,10 +5781,10 @@
         <v>435000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13.2414</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5760000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13.2414</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -5801,10 +5801,10 @@
         <v>430000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>13.0233</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>5600000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>13.0233</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -5821,10 +5821,10 @@
         <v>430000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>12.7907</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5500000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>12.7907</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -5841,10 +5841,10 @@
         <v>424000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5300000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -5861,10 +5861,10 @@
         <v>420000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.9048</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.9048</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -5881,10 +5881,10 @@
         <v>410000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>11.7073</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4800000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>11.7073</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -5901,10 +5901,10 @@
         <v>370000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4440000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>12</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -5921,10 +5921,10 @@
         <v>340000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>11.2059</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3810000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>11.2059</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -5941,10 +5941,10 @@
         <v>345000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.5942</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4000000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.5942</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -5961,10 +5961,10 @@
         <v>353000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11.3314</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4000000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11.3314</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -5981,10 +5981,10 @@
         <v>310000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12.2903</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3810000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12.2903</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -6001,10 +6001,10 @@
         <v>295000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>12.3051</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3630000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>12.3051</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -6021,10 +6021,10 @@
         <v>295000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>12.3051</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3630000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>12.3051</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -6041,10 +6041,10 @@
         <v>285000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>12.3158</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3510000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>12.3158</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -6061,10 +6061,10 @@
         <v>295000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.7966</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3480000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.7966</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -6081,10 +6081,10 @@
         <v>265000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.6981</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3100000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.6981</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -6101,10 +6101,10 @@
         <v>270000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3375000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -6121,10 +6121,10 @@
         <v>240000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.375</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2970000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.375</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -6141,10 +6141,10 @@
         <v>380000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.7105</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4450000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.7105</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -6161,10 +6161,10 @@
         <v>380000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.3158</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4300000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.3158</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -6181,10 +6181,10 @@
         <v>370000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10.2703</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3800000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10.2703</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -6200,10 +6200,10 @@
         <v>370000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10.1351</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3750000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10.1351</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -6219,10 +6219,10 @@
         <v>385000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.870100000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3800000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.870100000000001</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -6238,10 +6238,10 @@
         <v>385000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9.3506</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3600000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9.3506</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -6257,10 +6257,10 @@
         <v>430000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.4884</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4080000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.4884</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -6276,10 +6276,10 @@
         <v>480000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.520799999999999</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4570000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.520799999999999</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -6295,10 +6295,10 @@
         <v>485000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.484500000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4600000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.484500000000001</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -6632,7 +6632,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6711,10 +6711,10 @@
         <v>35278</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>53.0561</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1871712</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>53.0561</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>120.98</v>
@@ -6733,10 +6733,10 @@
         <v>35333</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>54.865</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1938545</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>54.865</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>87.34</v>
@@ -6755,10 +6755,10 @@
         <v>33460</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>56.4901</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1890160</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>56.4901</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>10.84</v>
@@ -6777,10 +6777,10 @@
         <v>33784</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>55.8323</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1886239</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>55.8323</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>27.85</v>
@@ -6799,10 +6799,10 @@
         <v>36018</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>53.2135</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1916645</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>53.2135</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>156</v>
@@ -6821,10 +6821,10 @@
         <v>35658</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>51.8333</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1848273</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>51.8333</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>26.29</v>
@@ -6843,10 +6843,10 @@
         <v>35760</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>51.1125</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1827782</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>51.1125</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.42</v>
@@ -6865,10 +6865,10 @@
         <v>36925</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>49.0638</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1811681</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>49.0638</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>691.4</v>
@@ -6887,10 +6887,10 @@
         <v>37643</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>48.419</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1822636</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>48.419</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>244.79</v>
@@ -6909,10 +6909,10 @@
         <v>38228</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>46.5751</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1780472</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>46.5751</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6929,10 +6929,10 @@
         <v>38173</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>45.9648</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1754613</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>45.9648</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -6951,10 +6951,10 @@
         <v>38313</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>45.4644</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1741878</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>45.4644</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>18</v>
@@ -6973,10 +6973,10 @@
         <v>38797</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>45.0853</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1749174</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>45.0853</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -6995,10 +6995,10 @@
         <v>39456</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>44.0793</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1739191</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>44.0793</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7017,10 +7017,10 @@
         <v>40510</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>42.8292</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1735010</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>42.8292</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7039,10 +7039,10 @@
         <v>40196</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>41.8643</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1682776</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>41.8643</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3</v>
@@ -7061,10 +7061,10 @@
         <v>40596</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>41.1484</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1670459</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>41.1484</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>22</v>
@@ -7083,10 +7083,10 @@
         <v>44261</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>40.6591</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1799613</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>40.6591</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2</v>
@@ -7105,10 +7105,10 @@
         <v>46174</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>37.7918</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1745000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>37.7918</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -7127,10 +7127,10 @@
         <v>45043</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>38.29669999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1725000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>38.29669999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>15</v>
@@ -7149,10 +7149,10 @@
         <v>46323</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>38.49319999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1783120</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>38.49319999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7171,10 +7171,10 @@
         <v>44380</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>37.6296</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1670000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>37.6296</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7193,10 +7193,10 @@
         <v>45375</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>38.3471</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1740000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>38.3471</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>21</v>
@@ -7215,10 +7215,10 @@
         <v>46257</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>39.4535</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1825000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>39.4535</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2.6</v>
@@ -7237,10 +7237,10 @@
         <v>45203</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>36.502</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1650000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>36.502</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>19</v>
@@ -7259,10 +7259,10 @@
         <v>42527</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>34.68380000000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1475000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>34.68380000000001</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>37</v>
@@ -7281,10 +7281,10 @@
         <v>46733</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>29.9574</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>29.9574</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>35</v>
@@ -7303,10 +7303,10 @@
         <v>46373</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>28.0336</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>28.0336</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7</v>
@@ -7325,10 +7325,10 @@
         <v>46599</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>26.8246</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1250000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>26.8246</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8</v>
@@ -7347,10 +7347,10 @@
         <v>42613</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>26.7524</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1140000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>26.7524</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>3</v>
@@ -7369,10 +7369,10 @@
         <v>42907</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>24.4715</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1050000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>24.4715</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>575</v>
@@ -7391,10 +7391,10 @@
         <v>43595</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>24.0853</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1050000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>24.0853</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>53</v>
@@ -7413,10 +7413,10 @@
         <v>42000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>24.0476</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1010000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>24.0476</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>195</v>
@@ -7435,10 +7435,10 @@
         <v>45000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>22.2222</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>22.2222</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>37</v>
@@ -7457,10 +7457,10 @@
         <v>40000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>40000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7501,10 +7501,10 @@
         <v>40000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>800000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7523,10 +7523,10 @@
         <v>40000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>750000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>18.75</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7545,10 +7545,10 @@
         <v>43300</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>18.0139</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>780000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>18.0139</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7567,10 +7567,10 @@
         <v>40000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>16.875</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>675000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>16.875</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7589,10 +7589,10 @@
         <v>42500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.1176</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.1176</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7611,10 +7611,10 @@
         <v>37500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.6667</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.6667</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7633,10 +7633,10 @@
         <v>35000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.5714</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>510000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.5714</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>30000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>16.6667</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>16.6667</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7677,10 +7677,10 @@
         <v>30000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>16.6667</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>16.6667</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7699,10 +7699,10 @@
         <v>28000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>16.9643</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>475000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>16.9643</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7721,10 +7721,10 @@
         <v>28000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>15.7143</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>440000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>15.7143</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7743,10 +7743,10 @@
         <v>25000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>425000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>17</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7765,10 +7765,10 @@
         <v>24000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>16.1667</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>388000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>16.1667</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7787,10 +7787,10 @@
         <v>23000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>14.7826</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>340000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>14.7826</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7809,10 +7809,10 @@
         <v>23000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15.6522</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>360000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15.6522</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7831,10 +7831,10 @@
         <v>27000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>16.0741</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>434000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>16.0741</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7853,10 +7853,10 @@
         <v>26000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>15.9615</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>415000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>15.9615</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>25000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>400000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>16</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7897,10 +7897,10 @@
         <v>23000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>16.0112</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>368257</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>16.0112</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7919,10 +7919,10 @@
         <v>22400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>14.9107</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>333999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>14.9107</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7941,10 +7941,10 @@
         <v>24000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -7962,10 +7962,10 @@
         <v>22800</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>11.3509</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>258800</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>11.3509</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -7983,10 +7983,10 @@
         <v>19500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>15.3949</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>300200</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>15.3949</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8004,10 +8004,10 @@
         <v>19200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>15.3646</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>295000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>15.3646</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8025,10 +8025,10 @@
         <v>18500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>15.4054</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>285000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>15.4054</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>17900</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>15.3631</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>275000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>15.3631</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>17500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>15.4286</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>270000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>15.4286</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8485,10 +8485,10 @@
         <v>36308</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>46.2836</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1680480.09</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>46.2836</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>40942</v>
@@ -8507,10 +8507,10 @@
         <v>36506</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>44.81180000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1635903.13</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>44.81180000000001</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>33414.38</v>
@@ -8529,10 +8529,10 @@
         <v>36434</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>43.9866</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1602606</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>43.9866</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>46939.86</v>
@@ -8551,10 +8551,10 @@
         <v>40029</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>42.14380000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1686975.5</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>42.14380000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>47729.94</v>
@@ -8573,10 +8573,10 @@
         <v>40851</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>39.81330000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1626412</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>39.81330000000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>100067.21</v>
@@ -8595,10 +8595,10 @@
         <v>42830</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>37.4585</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1604346</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>37.4585</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>123027.62</v>
@@ -8617,10 +8617,10 @@
         <v>44190</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>34.0567</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1504965</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>34.0567</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>134484.89</v>
@@ -8639,10 +8639,10 @@
         <v>46350</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>32.2178</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1493293</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>32.2178</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>115638.78</v>
@@ -8661,10 +8661,10 @@
         <v>69635</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>27.4296</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1910062.9</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>27.4296</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>145776.53</v>
@@ -8683,10 +8683,10 @@
         <v>69946</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>26.0218</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1820123</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>26.0218</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>230926.57</v>
@@ -8705,10 +8705,10 @@
         <v>67267</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>25.2828</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1700700</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>25.2828</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>214867</v>
@@ -8727,10 +8727,10 @@
         <v>67965</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>24.8058</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1685930</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>24.8058</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>213917</v>
@@ -8749,10 +8749,10 @@
         <v>66152</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>23.7443</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1570735</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>23.7443</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>183563</v>
@@ -8771,10 +8771,10 @@
         <v>66327</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>17.5173</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1161865</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>17.5173</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>201409</v>
@@ -8793,10 +8793,10 @@
         <v>66200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>17.1107</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1132730</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>17.1107</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>164959</v>
@@ -8815,10 +8815,10 @@
         <v>66220</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>17.0631</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1129920</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>17.0631</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>147152</v>
@@ -8837,10 +8837,10 @@
         <v>60450</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>16.5643</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1001314</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>16.5643</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>121085</v>
@@ -8859,10 +8859,10 @@
         <v>65047</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>15.4462</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1004731</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>15.4462</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>79817</v>
@@ -8881,10 +8881,10 @@
         <v>65949</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>15.6729</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1033615</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>15.6729</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>57409</v>
@@ -8903,10 +8903,10 @@
         <v>67260</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>14.8692</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1000095</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>14.8692</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>44112</v>
@@ -8925,10 +8925,10 @@
         <v>70861</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>14.5249</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1029243</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>14.5249</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>24950</v>
@@ -8947,10 +8947,10 @@
         <v>72074</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>13.1683</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>949097</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>13.1683</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>19945</v>
@@ -8969,10 +8969,10 @@
         <v>73154</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>933448</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12.76</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>19304</v>
@@ -8991,10 +8991,10 @@
         <v>74859</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>948461</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12.67</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>12152.44</v>
@@ -9013,10 +9013,10 @@
         <v>72723</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>983212</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>13.52</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8068</v>
@@ -9035,10 +9035,10 @@
         <v>75322</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1024374</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>13.6</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>20423</v>
@@ -9057,10 +9057,10 @@
         <v>98515</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>11.1321</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1096682</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>11.1321</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>27092</v>
@@ -9079,10 +9079,10 @@
         <v>51000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>9.803900000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>9.803900000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17800</v>
@@ -9101,10 +9101,10 @@
         <v>55000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.181800000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.181800000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>15000</v>
@@ -9123,10 +9123,10 @@
         <v>52000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6.3462</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>330000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6.3462</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>17362</v>
@@ -9145,10 +9145,10 @@
         <v>52000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>6.3077</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>328000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>6.3077</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>50000</v>
@@ -9167,10 +9167,10 @@
         <v>50000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>330000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>6.6</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>80000</v>
@@ -9182,387 +9182,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -9872,7 +10207,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9951,10 +10286,10 @@
         <v>19179</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>54.0539</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1036716.82</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>54.0539</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -9971,10 +10306,10 @@
         <v>18768</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>54.8051</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1028567.57</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>54.8051</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -9991,10 +10326,10 @@
         <v>18102</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>57.3961</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1038998.86</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>57.3961</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10011,10 +10346,10 @@
         <v>15742</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>73.68260000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1159933.69</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>73.68260000000001</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -10031,10 +10366,10 @@
         <v>16008</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>74.43689999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1191607.9</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>74.43689999999999</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -10051,10 +10386,10 @@
         <v>19597</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>54.70480000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1072047.61</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>54.70480000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2.89</v>
@@ -10073,10 +10408,10 @@
         <v>20180</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>47.3749</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>956004.8199999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>47.3749</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10093,10 +10428,10 @@
         <v>18603</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>47.641</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>886270.08</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>47.641</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.08</v>
@@ -10115,10 +10450,10 @@
         <v>17850</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>45.8146</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>817799.83</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>45.8146</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10135,10 +10470,10 @@
         <v>16808</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>42.10019999999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>707631.9399999999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>42.10019999999999</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10155,10 +10490,10 @@
         <v>15525</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>41.056</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>637395</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>41.056</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2061</v>
@@ -10177,10 +10512,10 @@
         <v>15307</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41.8441</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>640508</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41.8441</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2460</v>
@@ -10199,10 +10534,10 @@
         <v>17551</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>37.2686</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>654101.59</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>37.2686</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1154</v>
@@ -10221,10 +10556,10 @@
         <v>18301</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>34.1625</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>625215.24</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>34.1625</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>818</v>
@@ -10243,10 +10578,10 @@
         <v>18000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>540000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>30</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>572</v>
@@ -10265,10 +10600,10 @@
         <v>26000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>29.2308</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>760000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>29.2308</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>34</v>
@@ -10287,10 +10622,10 @@
         <v>17189</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>28.5191</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>490215</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>28.5191</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>5</v>
@@ -10309,10 +10644,10 @@
         <v>17731</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>27.9752</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>496029</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>27.9752</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>35</v>
@@ -10331,10 +10666,10 @@
         <v>17995</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>26.4208</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>475443</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>26.4208</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>42</v>
@@ -10353,10 +10688,10 @@
         <v>19578</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>26.4779</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>518385</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>26.4779</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>93</v>
@@ -10375,10 +10710,10 @@
         <v>18600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>25.5376</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>475000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>25.5376</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>16</v>
@@ -10397,10 +10732,10 @@
         <v>17095</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>25.434</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>434794</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>25.434</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>40</v>
@@ -10419,10 +10754,10 @@
         <v>18449</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>24.9774</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>460808</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>24.9774</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>322</v>
@@ -10441,10 +10776,10 @@
         <v>17475</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>26.281</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>459261</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>26.281</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>200.79</v>
@@ -10463,10 +10798,10 @@
         <v>18509</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>25.7211</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>476071</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>25.7211</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>174</v>
@@ -10485,10 +10820,10 @@
         <v>16867</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>25.4936</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>430000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>25.4936</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>75</v>
@@ -10507,10 +10842,10 @@
         <v>17950</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>23.0292</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>413375</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>23.0292</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>49</v>
@@ -10529,10 +10864,10 @@
         <v>17945</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>19.1206</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>343120</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>19.1206</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>342</v>
@@ -10551,10 +10886,10 @@
         <v>14111</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>22.0378</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>310975</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>22.0378</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>564</v>
@@ -10573,10 +10908,10 @@
         <v>13687</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>19.1435</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>262017</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>19.1435</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>438</v>
@@ -10595,10 +10930,10 @@
         <v>14801</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>19.1528</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>283480</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>19.1528</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>247</v>
@@ -10617,10 +10952,10 @@
         <v>14981</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>14.5373</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>217784</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>14.5373</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>216</v>
@@ -10639,10 +10974,10 @@
         <v>14945</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>18.1289</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>270936</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>18.1289</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>406</v>
@@ -10661,10 +10996,10 @@
         <v>15516</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>19.1912</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>297771</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>19.1912</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>299</v>
@@ -10683,10 +11018,10 @@
         <v>15541</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>17.1907</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>267161</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>17.1907</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>116</v>
@@ -10705,10 +11040,10 @@
         <v>17231</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>16.056</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>276661</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>16.056</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>121</v>
@@ -10727,10 +11062,10 @@
         <v>13293</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>19.5592</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>260000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>19.5592</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -10749,10 +11084,10 @@
         <v>13077</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>19.1175</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>19.1175</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -10771,10 +11106,10 @@
         <v>14041</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>21.366</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>21.366</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -10793,10 +11128,10 @@
         <v>16730</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>16.5232</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>276433</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>16.5232</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -10815,10 +11150,10 @@
         <v>12755</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>17.4336</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>222365</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>17.4336</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -10837,10 +11172,10 @@
         <v>9838</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>23.887</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>235000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>23.887</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -10859,10 +11194,10 @@
         <v>9960</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>29.8193</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>297000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>29.8193</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -10881,10 +11216,10 @@
         <v>11099</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>26.3988</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>293000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>26.3988</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -10903,10 +11238,10 @@
         <v>12067</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>18.2384</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>220083</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>18.2384</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -10925,10 +11260,10 @@
         <v>7616</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>20.651</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>157278</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>20.651</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -10947,10 +11282,10 @@
         <v>6717</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>20.8426</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>20.8426</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -10969,10 +11304,10 @@
         <v>12599</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.5246</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.5246</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -10991,10 +11326,10 @@
         <v>10592</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.0609</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>85381</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.0609</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11013,10 +11348,10 @@
         <v>10187</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.1225</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>113305</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.1225</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11035,10 +11370,10 @@
         <v>11498</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>10.5684</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>121515</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>10.5684</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11057,10 +11392,10 @@
         <v>17527</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8.3101</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>145651</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8.3101</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11079,10 +11414,10 @@
         <v>13189</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10.1999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>134526</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10.1999</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11101,10 +11436,10 @@
         <v>8000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11123,10 +11458,10 @@
         <v>7500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11145,10 +11480,10 @@
         <v>7000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12.1429</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12.1429</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11167,10 +11502,10 @@
         <v>6500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.3077</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.3077</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11188,10 +11523,10 @@
         <v>6000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>75000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11209,10 +11544,10 @@
         <v>6000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11.6667</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>70000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11.6667</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11230,10 +11565,10 @@
         <v>5900</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>11.5254</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>68000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>11.5254</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11251,10 +11586,10 @@
         <v>5800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11.3793</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>66000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11.3793</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11272,10 +11607,10 @@
         <v>5700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.4035</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>65000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.4035</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11293,10 +11628,10 @@
         <v>5600</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.4286</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>64000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.4286</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11632,7 +11967,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11711,10 +12046,10 @@
         <v>30029</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>32.0273</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>961751.41</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>32.0273</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.95</v>
@@ -11733,10 +12068,10 @@
         <v>27489</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>32.9001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>904390</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>32.9001</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -11753,10 +12088,10 @@
         <v>25616</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>34.7604</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>890433</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>34.7604</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -11775,10 +12110,10 @@
         <v>23993</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>33.8735</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>812728</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>33.8735</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11795,10 +12130,10 @@
         <v>23580</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>36.262</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>855058</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>36.262</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>100.28</v>
@@ -11817,10 +12152,10 @@
         <v>23077</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>37.1398</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>857076</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>37.1398</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.3</v>
@@ -11839,10 +12174,10 @@
         <v>19537</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>41.6436</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>813591</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>41.6436</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>6.88</v>
@@ -11861,10 +12196,10 @@
         <v>21538</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>43.6383</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>939882</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>43.6383</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6.88</v>
@@ -11883,10 +12218,10 @@
         <v>19000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>44.2203</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>840186</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>44.2203</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -11903,10 +12238,10 @@
         <v>18800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>38.2218</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>718570</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>38.2218</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -11923,10 +12258,10 @@
         <v>16879</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>35.9854</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>607397</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>35.9854</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -11943,10 +12278,10 @@
         <v>16825</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>36.2939</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>610645</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>36.2939</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -11963,10 +12298,10 @@
         <v>14956</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>29.2634</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>437663</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>29.2634</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -11983,10 +12318,10 @@
         <v>13000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>25.9154</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>336900</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>25.9154</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -12003,10 +12338,10 @@
         <v>12200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>25.5164</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>311300</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>25.5164</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -12023,10 +12358,10 @@
         <v>11900</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>22.8487</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>271900</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>22.8487</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -12043,10 +12378,10 @@
         <v>11300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>23.6106</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>266800</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>23.6106</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -12063,10 +12398,10 @@
         <v>11220</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>23.0472</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>258590</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>23.0472</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -12083,10 +12418,10 @@
         <v>10460</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>19.1405</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>200210</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>19.1405</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -12103,10 +12438,10 @@
         <v>10180</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18.1061</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>184320</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18.1061</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -12123,10 +12458,10 @@
         <v>9010</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>18.6504</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>168040</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>18.6504</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -12143,10 +12478,10 @@
         <v>9210</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>17.9761</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>165560</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>17.9761</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -12163,10 +12498,10 @@
         <v>9600</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>16.6042</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>159400</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>16.6042</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -12183,10 +12518,10 @@
         <v>9600</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>16.0208</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>153800</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>16.0208</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -12203,10 +12538,10 @@
         <v>10300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>14.7282</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>151700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>14.7282</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12223,10 +12558,10 @@
         <v>900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8.4444</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7600</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>8.4444</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12243,10 +12578,10 @@
         <v>700</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.857100000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6200</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.857100000000001</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12263,10 +12598,10 @@
         <v>600</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>9.333299999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5600</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>9.333299999999999</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12283,10 +12618,10 @@
         <v>900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.8889</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.8889</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -12301,10 +12636,10 @@
         <v>900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.8889</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8.8889</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -12319,10 +12654,10 @@
         <v>1000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8300</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8.300000000000001</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -12337,10 +12672,10 @@
         <v>1600</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>14000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.75</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -12348,387 +12683,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Pepinos, pepinillos.xlsx
+++ b/Resultados/Mercado mundial - Pepinos, pepinillos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Uzbekistán" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Türkiye" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Russian Federation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Uzbekistan" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +842,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Federación de Rusia'!$B$12:$B$74</f>
+              <f>'Russian Federation'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Federación de Rusia'!$C$12:$C$74</f>
+              <f>'Russian Federation'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Uzbekistán'!$B$12:$B$74</f>
+              <f>'Uzbekistan'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Uzbekistán'!$C$12:$C$74</f>
+              <f>'Uzbekistan'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>2194152</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>97814093.15000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>44.5794</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>97814093.15000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3296174.29</v>
@@ -2160,10 +2160,10 @@
         <v>2186993</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>95181586.34999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>43.5217</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>95181586.34999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3090658.81</v>
@@ -2182,10 +2182,10 @@
         <v>2177225</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>93017300.09</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>42.7229</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>93017300.09</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3134019.21</v>
@@ -2204,10 +2204,10 @@
         <v>2174139</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>90862506.23999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>41.7924</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>90862506.23999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3044263.74</v>
@@ -2226,10 +2226,10 @@
         <v>2175785</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>88318245.64</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>40.5914</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>88318245.64</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3011943.66</v>
@@ -2248,10 +2248,10 @@
         <v>2130688</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>84948212.17</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>39.8689</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>84948212.17</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2940890.37</v>
@@ -2270,10 +2270,10 @@
         <v>2113122</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>82236274.98</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>38.917</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>82236274.98</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2798633.19</v>
@@ -2292,10 +2292,10 @@
         <v>2199119</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>80882809.33</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>36.7796</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>80882809.33</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2781563.86</v>
@@ -2314,10 +2314,10 @@
         <v>2161106</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>78421113.31</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>36.2875</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>78421113.31</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2678896.25</v>
@@ -2336,10 +2336,10 @@
         <v>2140716</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>76149261.18000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>35.5719</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>76149261.18000001</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2708200.19</v>
@@ -2358,10 +2358,10 @@
         <v>2112244</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>73261737.87</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>34.6843</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>73261737.87</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2453143</v>
@@ -2380,10 +2380,10 @@
         <v>2117097</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>70849648.26000001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>33.4655</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>70849648.26000001</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2391986</v>
@@ -2402,10 +2402,10 @@
         <v>2091955</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>67960762.22</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>32.4867</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>67960762.22</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2324872</v>
@@ -2424,10 +2424,10 @@
         <v>2021831</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>62579398.29</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>30.9518</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>62579398.29</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2388055</v>
@@ -2446,10 +2446,10 @@
         <v>1967359</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>60683642.24</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>30.8452</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>60683642.24</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2097804</v>
@@ -2468,10 +2468,10 @@
         <v>1921653</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>58446498.98</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>30.4147</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>58446498.98</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1971722</v>
@@ -2490,10 +2490,10 @@
         <v>1968997</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>54092832.17</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>27.4723</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>54092832.17</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1890446</v>
@@ -2512,10 +2512,10 @@
         <v>1880723</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>49696004.37</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>26.4239</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>49696004.37</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1799537</v>
@@ -2534,10 +2534,10 @@
         <v>1916988</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>45985531.27</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>23.9884</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>45985531.27</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1667426</v>
@@ -2556,10 +2556,10 @@
         <v>1905287</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>43092931.95</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>22.6176</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>43092931.95</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1543212</v>
@@ -2578,10 +2578,10 @@
         <v>1950985</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>43417699.14</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.2542</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>43417699.14</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1449501</v>
@@ -2600,10 +2600,10 @@
         <v>1970233</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>42703924.35</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21.6746</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>42703924.35</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1381236</v>
@@ -2622,10 +2622,10 @@
         <v>2018272</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>39457185.07</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>19.55</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>39457185.07</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1342650</v>
@@ -2644,10 +2644,10 @@
         <v>2046793</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>37941457.64</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.537</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>37941457.64</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1245814.35</v>
@@ -2666,10 +2666,10 @@
         <v>1950757</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>30855330.25</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>15.8171</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>30855330.25</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1224630.93</v>
@@ -2688,10 +2688,10 @@
         <v>1824921</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>28713249.01</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.734</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>28713249.01</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1228663.99</v>
@@ -2710,10 +2710,10 @@
         <v>1718398</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>27469144.89</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>15.9853</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>27469144.89</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1266494.53</v>
@@ -2732,10 +2732,10 @@
         <v>1562465</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>25640858.39</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16.4105</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>25640858.39</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1238510.02</v>
@@ -2754,10 +2754,10 @@
         <v>1489247</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>23543389.6</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>15.8089</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>23543389.6</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1132106.02</v>
@@ -2776,10 +2776,10 @@
         <v>1395883</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>21667891.76</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>15.5227</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>21667891.76</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1252102.14</v>
@@ -2798,10 +2798,10 @@
         <v>1299858</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>20252696.2</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>15.5807</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>20252696.2</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1053234</v>
@@ -2820,10 +2820,10 @@
         <v>1175010</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>18149291.58</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>15.4461</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>18149291.58</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1177347</v>
@@ -2842,10 +2842,10 @@
         <v>1183819</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17727338.39</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14.9747</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17727338.39</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1071453</v>
@@ -2864,10 +2864,10 @@
         <v>1196307</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>17625563</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>14.7333</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>17625563</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>965890</v>
@@ -2886,10 +2886,10 @@
         <v>1215571</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>16168780</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13.3014</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>16168780</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>947762</v>
@@ -2908,10 +2908,10 @@
         <v>1176621</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15982065</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13.583</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15982065</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>920346</v>
@@ -2930,10 +2930,10 @@
         <v>1174717</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>16104825</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13.7095</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>16104825</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>861993</v>
@@ -2952,10 +2952,10 @@
         <v>1166510</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15815060</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>13.5576</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15815060</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>829317</v>
@@ -2974,10 +2974,10 @@
         <v>1160590</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15465643</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>13.3257</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15465643</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>768560</v>
@@ -2996,10 +2996,10 @@
         <v>1098234</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>14723523</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>13.4065</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>14723523</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>743643</v>
@@ -3018,10 +3018,10 @@
         <v>1106586</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14557840</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>13.1556</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14557840</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>701987</v>
@@ -3040,10 +3040,10 @@
         <v>1115159</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14692535</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>13.1753</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14692535</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>687548</v>
@@ -3062,10 +3062,10 @@
         <v>1085398</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14203897</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13.0863</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14203897</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>709452</v>
@@ -3084,10 +3084,10 @@
         <v>1055548</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12757970</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.0866</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12757970</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>655602</v>
@@ -3106,10 +3106,10 @@
         <v>1057442</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13333545</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>12.6092</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13333545</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>697270</v>
@@ -3128,10 +3128,10 @@
         <v>1037100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12105800</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11.6727</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12105800</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>660680</v>
@@ -3150,10 +3150,10 @@
         <v>972648</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12303822</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12.6498</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12303822</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>606441</v>
@@ -3172,10 +3172,10 @@
         <v>950361</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11317584</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.9087</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11317584</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>548200</v>
@@ -3194,10 +3194,10 @@
         <v>975953</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11644926</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.9319</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11644926</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>490766</v>
@@ -3216,10 +3216,10 @@
         <v>945602</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>10982232</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.614</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>10982232</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>492862</v>
@@ -3238,10 +3238,10 @@
         <v>958808</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11273541</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.7579</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11273541</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>474105</v>
@@ -3260,10 +3260,10 @@
         <v>919144</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10607717</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.5409</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10607717</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>445317</v>
@@ -3282,10 +3282,10 @@
         <v>911736</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10562148</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11.5847</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10562148</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>381462</v>
@@ -3304,10 +3304,10 @@
         <v>875852</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10173815</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.6159</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10173815</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>369525</v>
@@ -3326,10 +3326,10 @@
         <v>1002042</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11084264</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.0617</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11084264</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>334475</v>
@@ -3348,10 +3348,10 @@
         <v>992215</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10887839</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10.9733</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10887839</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>249939</v>
@@ -3370,10 +3370,10 @@
         <v>988308</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10458054</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10.5818</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10458054</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>283005</v>
@@ -3391,10 +3391,10 @@
         <v>964647</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>9906906</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10.27</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>9906906</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>287941</v>
@@ -3412,10 +3412,10 @@
         <v>958144</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9308925</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.7156</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9308925</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>236126</v>
@@ -3433,10 +3433,10 @@
         <v>974516</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>9423680</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.6701</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>9423680</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>203333</v>
@@ -3454,10 +3454,10 @@
         <v>1010686</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9590254</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.488899999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9590254</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>194690</v>
@@ -3475,10 +3475,10 @@
         <v>1022017</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9371934</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.17</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9371934</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>204235</v>
@@ -3496,10 +3496,10 @@
         <v>1012465</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9548650</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.431100000000001</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9548650</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>154326</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3910,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistán</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Kazajstán</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Afganistán</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Jordania</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Chequia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>1324706</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>80168206.73</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>60.5177</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>80168206.73</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>1307080</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>77572601.29000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>59.348</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>77572601.29000001</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>1283995</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>75104437.89</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>58.4928</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>75104437.89</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5071,10 @@
         <v>1279591</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>72908502.34</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>56.978</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>72908502.34</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.67</v>
@@ -5093,10 +5093,10 @@
         <v>1258370</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>70338971</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>55.8969</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>70338971</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>11.68</v>
@@ -5115,10 +5115,10 @@
         <v>1239950</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>67601863</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>54.5198</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>67601863</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.13</v>
@@ -5137,10 +5137,10 @@
         <v>1226771</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>65156962.79</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>53.1126</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>65156962.79</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.71</v>
@@ -5159,10 +5159,10 @@
         <v>1210759</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>62806009.62</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>51.8733</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>62806009.62</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.76</v>
@@ -5181,10 +5181,10 @@
         <v>1191632</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>60407455.39</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>50.693</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>60407455.39</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7.9</v>
@@ -5203,10 +5203,10 @@
         <v>1181676</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>56865417.74</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>48.12269999999999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>56865417.74</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5223,10 +5223,10 @@
         <v>1164350</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>54315900</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>46.6491</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>54315900</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>1156980</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>51886600</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>44.8466</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>51886600</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5267,10 +5267,10 @@
         <v>1112230</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>49193200</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>44.2293</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>49193200</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5289,10 +5289,10 @@
         <v>1070000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>45665000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>42.6776</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>45665000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>1034700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>44204000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>42.7216</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>44204000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>1005700</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>42194000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>41.9549</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>42194000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5355,10 +5355,10 @@
         <v>1100000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>34.5455</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>38000000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>1000000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>33</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>33000000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5399,10 +5399,10 @@
         <v>1050000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>28.5714</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>30000000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         <v>1000000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27000000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>1050000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>27300000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>26</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>27300000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>1100000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>27500000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>25</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>27500000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -5487,10 +5487,10 @@
         <v>1150000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.7391</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>25000000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -5509,10 +5509,10 @@
         <v>1160000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>23200000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>23200000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1.9</v>
@@ -5531,10 +5531,10 @@
         <v>1050000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>15.7143</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>16500000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1</v>
@@ -5553,10 +5553,10 @@
         <v>950000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.7895</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15000000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7</v>
@@ -5575,10 +5575,10 @@
         <v>850000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>14200000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16.7059</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>14200000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>3</v>
@@ -5597,10 +5597,10 @@
         <v>750000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>13300000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17.7333</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>13300000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>12</v>
@@ -5619,10 +5619,10 @@
         <v>660000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11525000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17.4621</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11525000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>20</v>
@@ -5641,10 +5641,10 @@
         <v>620000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.9355</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10500000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -5661,10 +5661,10 @@
         <v>540000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9200000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>17.037</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9200000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -5681,10 +5681,10 @@
         <v>430000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7600000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>17.6744</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7600000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -5701,10 +5701,10 @@
         <v>457115</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>7415000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>16.2213</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>7415000</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -5721,10 +5721,10 @@
         <v>450000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6740000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>14.9778</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6740000</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -5741,10 +5741,10 @@
         <v>445000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6130000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13.7753</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6130000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -5761,10 +5761,10 @@
         <v>440000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5900000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13.4091</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5900000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -5781,10 +5781,10 @@
         <v>435000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13.2414</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>5760000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -5801,10 +5801,10 @@
         <v>430000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>5600000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>13.0233</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>5600000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -5821,10 +5821,10 @@
         <v>430000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>12.7907</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>5500000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -5841,10 +5841,10 @@
         <v>424000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5300000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5300000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -5861,10 +5861,10 @@
         <v>420000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.9048</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -5881,10 +5881,10 @@
         <v>410000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>11.7073</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4800000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -5901,10 +5901,10 @@
         <v>370000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4440000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>12</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4440000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -5921,10 +5921,10 @@
         <v>340000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3810000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>11.2059</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3810000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -5941,10 +5941,10 @@
         <v>345000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.5942</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4000000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -5961,10 +5961,10 @@
         <v>353000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11.3314</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4000000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -5981,10 +5981,10 @@
         <v>310000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3810000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12.2903</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3810000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -6001,10 +6001,10 @@
         <v>295000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3630000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>12.3051</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3630000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -6021,10 +6021,10 @@
         <v>295000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3630000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>12.3051</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3630000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -6041,10 +6041,10 @@
         <v>285000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3510000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>12.3158</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3510000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -6061,10 +6061,10 @@
         <v>295000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3480000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.7966</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3480000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -6081,10 +6081,10 @@
         <v>265000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.6981</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3100000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -6101,10 +6101,10 @@
         <v>270000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3375000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3375000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -6121,10 +6121,10 @@
         <v>240000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2970000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.375</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2970000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -6141,10 +6141,10 @@
         <v>380000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4450000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.7105</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4450000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -6161,10 +6161,10 @@
         <v>380000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4300000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.3158</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4300000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -6181,10 +6181,10 @@
         <v>370000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10.2703</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3800000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -6200,10 +6200,10 @@
         <v>370000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10.1351</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3750000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -6219,10 +6219,10 @@
         <v>385000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.870100000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3800000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -6238,10 +6238,10 @@
         <v>385000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>9.3506</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3600000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -6257,10 +6257,10 @@
         <v>430000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4080000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.4884</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4080000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -6276,10 +6276,10 @@
         <v>480000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4570000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.520799999999999</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4570000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -6295,10 +6295,10 @@
         <v>485000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4600000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.484500000000001</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4600000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -6632,7 +6632,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6711,10 +6711,10 @@
         <v>35278</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1871712</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>53.0561</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1871712</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>120.98</v>
@@ -6733,10 +6733,10 @@
         <v>35333</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1938545</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>54.865</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1938545</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>87.34</v>
@@ -6755,10 +6755,10 @@
         <v>33460</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1890160</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>56.4901</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1890160</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>10.84</v>
@@ -6777,10 +6777,10 @@
         <v>33784</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1886239</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>55.8323</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1886239</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>27.85</v>
@@ -6799,10 +6799,10 @@
         <v>36018</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1916645</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>53.2135</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1916645</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>156</v>
@@ -6821,10 +6821,10 @@
         <v>35658</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1848273</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>51.8333</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1848273</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>26.29</v>
@@ -6843,10 +6843,10 @@
         <v>35760</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1827782</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>51.1125</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1827782</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2.42</v>
@@ -6865,10 +6865,10 @@
         <v>36925</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1811681</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>49.0638</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1811681</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>691.4</v>
@@ -6887,10 +6887,10 @@
         <v>37643</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1822636</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>48.419</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1822636</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>244.79</v>
@@ -6909,10 +6909,10 @@
         <v>38228</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1780472</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>46.5751</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1780472</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6929,10 +6929,10 @@
         <v>38173</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1754613</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>45.9648</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1754613</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -6951,10 +6951,10 @@
         <v>38313</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1741878</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>45.4644</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1741878</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>18</v>
@@ -6973,10 +6973,10 @@
         <v>38797</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1749174</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>45.0853</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1749174</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -6995,10 +6995,10 @@
         <v>39456</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1739191</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>44.0793</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1739191</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7017,10 +7017,10 @@
         <v>40510</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1735010</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>42.8292</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1735010</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7039,10 +7039,10 @@
         <v>40196</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1682776</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>41.8643</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1682776</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3</v>
@@ -7061,10 +7061,10 @@
         <v>40596</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1670459</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>41.1484</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1670459</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>22</v>
@@ -7083,10 +7083,10 @@
         <v>44261</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1799613</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>40.6591</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1799613</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2</v>
@@ -7105,10 +7105,10 @@
         <v>46174</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>37.7918</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1745000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -7127,10 +7127,10 @@
         <v>45043</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1725000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>38.29669999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1725000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>15</v>
@@ -7149,10 +7149,10 @@
         <v>46323</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1783120</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>38.49319999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1783120</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7171,10 +7171,10 @@
         <v>44380</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>37.6296</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1670000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7193,10 +7193,10 @@
         <v>45375</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>38.3471</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1740000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>21</v>
@@ -7215,10 +7215,10 @@
         <v>46257</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1825000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>39.4535</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1825000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2.6</v>
@@ -7237,10 +7237,10 @@
         <v>45203</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>36.502</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1650000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>19</v>
@@ -7259,10 +7259,10 @@
         <v>42527</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1475000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>34.68380000000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1475000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>37</v>
@@ -7281,10 +7281,10 @@
         <v>46733</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>29.9574</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>35</v>
@@ -7303,10 +7303,10 @@
         <v>46373</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>28.0336</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7</v>
@@ -7325,10 +7325,10 @@
         <v>46599</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>26.8246</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1250000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8</v>
@@ -7347,10 +7347,10 @@
         <v>42613</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>26.7524</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1140000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>3</v>
@@ -7369,10 +7369,10 @@
         <v>42907</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>24.4715</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1050000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>575</v>
@@ -7391,10 +7391,10 @@
         <v>43595</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>24.0853</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1050000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>53</v>
@@ -7413,10 +7413,10 @@
         <v>42000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1010000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>24.0476</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1010000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>195</v>
@@ -7435,10 +7435,10 @@
         <v>45000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>22.2222</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1000000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>37</v>
@@ -7457,10 +7457,10 @@
         <v>40000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>40000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7501,10 +7501,10 @@
         <v>40000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>800000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7523,10 +7523,10 @@
         <v>40000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>18.75</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>750000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7545,10 +7545,10 @@
         <v>43300</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>18.0139</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>780000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7567,10 +7567,10 @@
         <v>40000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>675000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>16.875</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>675000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7589,10 +7589,10 @@
         <v>42500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.1176</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7611,10 +7611,10 @@
         <v>37500</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.6667</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7633,10 +7633,10 @@
         <v>35000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>510000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.5714</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>510000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>30000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>16.6667</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7677,10 +7677,10 @@
         <v>30000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>16.6667</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7699,10 +7699,10 @@
         <v>28000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>475000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>16.9643</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>475000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7721,10 +7721,10 @@
         <v>28000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>440000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>15.7143</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>440000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7743,10 +7743,10 @@
         <v>25000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>425000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>17</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>425000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7765,10 +7765,10 @@
         <v>24000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>388000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>16.1667</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>388000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7787,10 +7787,10 @@
         <v>23000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>14.7826</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>340000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7809,10 +7809,10 @@
         <v>23000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15.6522</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>360000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7831,10 +7831,10 @@
         <v>27000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>434000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>16.0741</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>434000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7853,10 +7853,10 @@
         <v>26000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>415000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>15.9615</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>415000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>25000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>16</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>400000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7897,10 +7897,10 @@
         <v>23000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>368257</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>16.0112</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>368257</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7919,10 +7919,10 @@
         <v>22400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>333999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>14.9107</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>333999</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -7941,10 +7941,10 @@
         <v>24000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -7962,10 +7962,10 @@
         <v>22800</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>258800</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>11.3509</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>258800</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -7983,10 +7983,10 @@
         <v>19500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>300200</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>15.3949</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>300200</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8004,10 +8004,10 @@
         <v>19200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>295000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>15.3646</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>295000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8025,10 +8025,10 @@
         <v>18500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>285000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>15.4054</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>285000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>17900</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>15.3631</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>275000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>17500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>15.4286</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>270000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8485,10 +8485,10 @@
         <v>36308</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1680480.09</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>46.2836</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1680480.09</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>40942</v>
@@ -8507,10 +8507,10 @@
         <v>36506</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1635903.13</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>44.81180000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1635903.13</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>33414.38</v>
@@ -8529,10 +8529,10 @@
         <v>36434</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1602606</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>43.9866</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1602606</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>46939.86</v>
@@ -8551,10 +8551,10 @@
         <v>40029</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1686975.5</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>42.14380000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1686975.5</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>47729.94</v>
@@ -8573,10 +8573,10 @@
         <v>40851</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1626412</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>39.81330000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1626412</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>100067.21</v>
@@ -8595,10 +8595,10 @@
         <v>42830</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1604346</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>37.4585</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1604346</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>123027.62</v>
@@ -8617,10 +8617,10 @@
         <v>44190</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1504965</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>34.0567</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1504965</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>134484.89</v>
@@ -8639,10 +8639,10 @@
         <v>46350</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1493293</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>32.2178</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1493293</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>115638.78</v>
@@ -8661,10 +8661,10 @@
         <v>69635</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1910062.9</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>27.4296</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1910062.9</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>145776.53</v>
@@ -8683,10 +8683,10 @@
         <v>69946</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1820123</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>26.0218</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1820123</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>230926.57</v>
@@ -8705,10 +8705,10 @@
         <v>67267</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1700700</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>25.2828</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1700700</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>214867</v>
@@ -8727,10 +8727,10 @@
         <v>67965</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1685930</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>24.8058</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1685930</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>213917</v>
@@ -8749,10 +8749,10 @@
         <v>66152</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1570735</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>23.7443</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1570735</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>183563</v>
@@ -8771,10 +8771,10 @@
         <v>66327</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1161865</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>17.5173</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1161865</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>201409</v>
@@ -8793,10 +8793,10 @@
         <v>66200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1132730</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>17.1107</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1132730</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>164959</v>
@@ -8815,10 +8815,10 @@
         <v>66220</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1129920</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>17.0631</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1129920</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>147152</v>
@@ -8837,10 +8837,10 @@
         <v>60450</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1001314</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>16.5643</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1001314</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>121085</v>
@@ -8859,10 +8859,10 @@
         <v>65047</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1004731</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>15.4462</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1004731</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>79817</v>
@@ -8881,10 +8881,10 @@
         <v>65949</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1033615</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>15.6729</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1033615</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>57409</v>
@@ -8903,10 +8903,10 @@
         <v>67260</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1000095</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>14.8692</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1000095</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>44112</v>
@@ -8925,10 +8925,10 @@
         <v>70861</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1029243</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>14.5249</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1029243</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>24950</v>
@@ -8947,10 +8947,10 @@
         <v>72074</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>949097</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>13.1683</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>949097</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>19945</v>
@@ -8969,10 +8969,10 @@
         <v>73154</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>933448</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12.76</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>933448</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>19304</v>
@@ -8991,10 +8991,10 @@
         <v>74859</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>948461</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12.67</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>948461</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>12152.44</v>
@@ -9013,10 +9013,10 @@
         <v>72723</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>983212</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>13.52</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>983212</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8068</v>
@@ -9035,10 +9035,10 @@
         <v>75322</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1024374</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>13.6</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1024374</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>20423</v>
@@ -9057,10 +9057,10 @@
         <v>98515</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1096682</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>11.1321</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1096682</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>27092</v>
@@ -9079,10 +9079,10 @@
         <v>51000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>9.803900000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17800</v>
@@ -9101,10 +9101,10 @@
         <v>55000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.181800000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>15000</v>
@@ -9123,10 +9123,10 @@
         <v>52000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6.3462</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>330000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>17362</v>
@@ -9145,10 +9145,10 @@
         <v>52000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>328000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>6.3077</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>328000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>50000</v>
@@ -9167,10 +9167,10 @@
         <v>50000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>6.6</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>330000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>80000</v>
@@ -9182,722 +9182,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -10207,7 +9872,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10286,10 +9951,10 @@
         <v>19179</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1036716.82</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>54.0539</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1036716.82</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -10306,10 +9971,10 @@
         <v>18768</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1028567.57</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>54.8051</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1028567.57</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10326,10 +9991,10 @@
         <v>18102</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1038998.86</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>57.3961</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1038998.86</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10346,10 +10011,10 @@
         <v>15742</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1159933.69</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>73.68260000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1159933.69</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -10366,10 +10031,10 @@
         <v>16008</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1191607.9</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>74.43689999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1191607.9</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -10386,10 +10051,10 @@
         <v>19597</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1072047.61</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>54.70480000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1072047.61</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2.89</v>
@@ -10408,10 +10073,10 @@
         <v>20180</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>956004.8199999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>47.3749</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>956004.8199999999</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10428,10 +10093,10 @@
         <v>18603</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>886270.08</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>47.641</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>886270.08</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.08</v>
@@ -10450,10 +10115,10 @@
         <v>17850</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>817799.83</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>45.8146</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>817799.83</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10470,10 +10135,10 @@
         <v>16808</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>707631.9399999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>42.10019999999999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>707631.9399999999</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10490,10 +10155,10 @@
         <v>15525</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>637395</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>41.056</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>637395</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2061</v>
@@ -10512,10 +10177,10 @@
         <v>15307</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>640508</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41.8441</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>640508</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2460</v>
@@ -10534,10 +10199,10 @@
         <v>17551</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>654101.59</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>37.2686</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>654101.59</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1154</v>
@@ -10556,10 +10221,10 @@
         <v>18301</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>625215.24</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>34.1625</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>625215.24</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>818</v>
@@ -10578,10 +10243,10 @@
         <v>18000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>30</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>540000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>572</v>
@@ -10600,10 +10265,10 @@
         <v>26000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>760000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>29.2308</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>760000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>34</v>
@@ -10622,10 +10287,10 @@
         <v>17189</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>490215</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>28.5191</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>490215</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>5</v>
@@ -10644,10 +10309,10 @@
         <v>17731</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>496029</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>27.9752</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>496029</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>35</v>
@@ -10666,10 +10331,10 @@
         <v>17995</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>475443</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>26.4208</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>475443</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>42</v>
@@ -10688,10 +10353,10 @@
         <v>19578</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>518385</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>26.4779</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>518385</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>93</v>
@@ -10710,10 +10375,10 @@
         <v>18600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>475000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>25.5376</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>475000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>16</v>
@@ -10732,10 +10397,10 @@
         <v>17095</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>434794</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>25.434</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>434794</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>40</v>
@@ -10754,10 +10419,10 @@
         <v>18449</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>460808</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>24.9774</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>460808</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>322</v>
@@ -10776,10 +10441,10 @@
         <v>17475</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>459261</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>26.281</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>459261</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>200.79</v>
@@ -10798,10 +10463,10 @@
         <v>18509</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>476071</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>25.7211</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>476071</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>174</v>
@@ -10820,10 +10485,10 @@
         <v>16867</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>430000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>25.4936</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>430000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>75</v>
@@ -10842,10 +10507,10 @@
         <v>17950</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>413375</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>23.0292</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>413375</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>49</v>
@@ -10864,10 +10529,10 @@
         <v>17945</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>343120</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>19.1206</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>343120</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>342</v>
@@ -10886,10 +10551,10 @@
         <v>14111</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>310975</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>22.0378</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>310975</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>564</v>
@@ -10908,10 +10573,10 @@
         <v>13687</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>262017</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>19.1435</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>262017</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>438</v>
@@ -10930,10 +10595,10 @@
         <v>14801</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>283480</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>19.1528</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>283480</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>247</v>
@@ -10952,10 +10617,10 @@
         <v>14981</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>217784</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>14.5373</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>217784</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>216</v>
@@ -10974,10 +10639,10 @@
         <v>14945</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>270936</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>18.1289</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>270936</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>406</v>
@@ -10996,10 +10661,10 @@
         <v>15516</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>297771</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>19.1912</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>297771</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>299</v>
@@ -11018,10 +10683,10 @@
         <v>15541</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>267161</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>17.1907</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>267161</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>116</v>
@@ -11040,10 +10705,10 @@
         <v>17231</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>276661</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>16.056</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>276661</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>121</v>
@@ -11062,10 +10727,10 @@
         <v>13293</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>260000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>19.5592</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>260000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -11084,10 +10749,10 @@
         <v>13077</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>19.1175</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -11106,10 +10771,10 @@
         <v>14041</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>21.366</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11128,10 +10793,10 @@
         <v>16730</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>276433</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>16.5232</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>276433</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11150,10 +10815,10 @@
         <v>12755</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>222365</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>17.4336</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>222365</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11172,10 +10837,10 @@
         <v>9838</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>235000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>23.887</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>235000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11194,10 +10859,10 @@
         <v>9960</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>297000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>29.8193</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>297000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11216,10 +10881,10 @@
         <v>11099</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>293000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>26.3988</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>293000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11238,10 +10903,10 @@
         <v>12067</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>220083</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>18.2384</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>220083</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11260,10 +10925,10 @@
         <v>7616</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>157278</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>20.651</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>157278</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11282,10 +10947,10 @@
         <v>6717</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>20.8426</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11304,10 +10969,10 @@
         <v>12599</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.5246</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11326,10 +10991,10 @@
         <v>10592</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>85381</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.0609</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>85381</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11348,10 +11013,10 @@
         <v>10187</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>113305</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.1225</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>113305</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11370,10 +11035,10 @@
         <v>11498</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>121515</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>10.5684</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>121515</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11392,10 +11057,10 @@
         <v>17527</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>145651</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8.3101</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>145651</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11414,10 +11079,10 @@
         <v>13189</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>134526</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10.1999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>134526</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11436,10 +11101,10 @@
         <v>8000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11458,10 +11123,10 @@
         <v>7500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11480,10 +11145,10 @@
         <v>7000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12.1429</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11502,10 +11167,10 @@
         <v>6500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.3077</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11523,10 +11188,10 @@
         <v>6000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>75000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11544,10 +11209,10 @@
         <v>6000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11.6667</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>70000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11565,10 +11230,10 @@
         <v>5900</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>11.5254</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>68000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11586,10 +11251,10 @@
         <v>5800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11.3793</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>66000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11607,10 +11272,10 @@
         <v>5700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.4035</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>65000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11628,10 +11293,10 @@
         <v>5600</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.4286</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>64000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11967,7 +11632,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12046,10 +11711,10 @@
         <v>30029</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>961751.41</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>32.0273</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>961751.41</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.95</v>
@@ -12068,10 +11733,10 @@
         <v>27489</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>904390</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>32.9001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>904390</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -12088,10 +11753,10 @@
         <v>25616</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>890433</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>34.7604</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>890433</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -12110,10 +11775,10 @@
         <v>23993</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>812728</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>33.8735</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>812728</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -12130,10 +11795,10 @@
         <v>23580</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>855058</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>36.262</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>855058</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>100.28</v>
@@ -12152,10 +11817,10 @@
         <v>23077</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>857076</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>37.1398</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>857076</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.3</v>
@@ -12174,10 +11839,10 @@
         <v>19537</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>813591</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>41.6436</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>813591</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>6.88</v>
@@ -12196,10 +11861,10 @@
         <v>21538</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>939882</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>43.6383</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>939882</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6.88</v>
@@ -12218,10 +11883,10 @@
         <v>19000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>840186</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>44.2203</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>840186</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -12238,10 +11903,10 @@
         <v>18800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>718570</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>38.2218</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>718570</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12258,10 +11923,10 @@
         <v>16879</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>607397</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>35.9854</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>607397</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -12278,10 +11943,10 @@
         <v>16825</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>610645</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>36.2939</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>610645</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -12298,10 +11963,10 @@
         <v>14956</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>437663</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>29.2634</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>437663</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -12318,10 +11983,10 @@
         <v>13000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>336900</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>25.9154</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>336900</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -12338,10 +12003,10 @@
         <v>12200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>311300</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>25.5164</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>311300</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -12358,10 +12023,10 @@
         <v>11900</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>271900</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>22.8487</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>271900</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -12378,10 +12043,10 @@
         <v>11300</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>266800</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>23.6106</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>266800</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -12398,10 +12063,10 @@
         <v>11220</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>258590</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>23.0472</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>258590</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -12418,10 +12083,10 @@
         <v>10460</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>200210</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>19.1405</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>200210</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -12438,10 +12103,10 @@
         <v>10180</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>184320</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18.1061</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>184320</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -12458,10 +12123,10 @@
         <v>9010</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>168040</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>18.6504</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>168040</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -12478,10 +12143,10 @@
         <v>9210</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>165560</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>17.9761</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>165560</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -12498,10 +12163,10 @@
         <v>9600</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>159400</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>16.6042</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>159400</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -12518,10 +12183,10 @@
         <v>9600</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>153800</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>16.0208</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>153800</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -12538,10 +12203,10 @@
         <v>10300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>151700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>14.7282</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>151700</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12558,10 +12223,10 @@
         <v>900</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7600</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8.4444</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>7600</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12578,10 +12243,10 @@
         <v>700</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.857100000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6200</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12598,10 +12263,10 @@
         <v>600</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5600</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>9.333299999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5600</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12618,10 +12283,10 @@
         <v>900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.8889</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -12636,10 +12301,10 @@
         <v>900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.8889</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -12654,10 +12319,10 @@
         <v>1000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8300</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.300000000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8300</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -12672,10 +12337,10 @@
         <v>1600</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.75</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>14000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -12683,722 +12348,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
